--- a/MT-MONITOR V1.0.0/MT-MONITOR V1.0.0BOM 20180926.xlsx
+++ b/MT-MONITOR V1.0.0/MT-MONITOR V1.0.0BOM 20180926.xlsx
@@ -1184,10 +1184,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>PCBA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>MT-MONITOR V1.0.0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1278,6 +1274,10 @@
   <si>
     <t>10.  01. 19.18.1001</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1787,6 +1787,21 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1801,21 +1816,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2092,14 +2092,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="5" style="5" customWidth="1"/>
-    <col min="2" max="2" width="19.875" style="70" customWidth="1"/>
+    <col min="2" max="2" width="19.875" style="65" customWidth="1"/>
     <col min="3" max="3" width="16" style="6" customWidth="1"/>
     <col min="4" max="4" width="37.625" style="6" customWidth="1"/>
     <col min="5" max="5" width="110.5" style="6" customWidth="1"/>
@@ -2109,21 +2109,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="23.1" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="61" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -2210,7 +2210,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C6" s="29" t="s">
         <v>8</v>
@@ -2483,7 +2483,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C19" s="29" t="s">
         <v>8</v>
@@ -2651,7 +2651,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C27" s="29" t="s">
         <v>51</v>
@@ -2672,7 +2672,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C28" s="29" t="s">
         <v>51</v>
@@ -2735,7 +2735,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C31" s="29" t="s">
         <v>51</v>
@@ -2756,7 +2756,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C32" s="29" t="s">
         <v>51</v>
@@ -2798,7 +2798,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>69</v>
@@ -2945,7 +2945,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="51" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>87</v>
@@ -3176,7 +3176,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="51" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C52" s="11" t="s">
         <v>112</v>
@@ -3533,7 +3533,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="51" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C69" s="29" t="s">
         <v>151</v>
@@ -3722,7 +3722,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="51" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C78" s="42" t="s">
         <v>168</v>
@@ -3743,13 +3743,13 @@
         <v>77</v>
       </c>
       <c r="B79" s="51" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C79" s="15" t="s">
         <v>271</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E79" s="29" t="s">
         <v>171</v>
@@ -3764,13 +3764,13 @@
         <v>78</v>
       </c>
       <c r="B80" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="C80" s="58" t="s">
         <v>286</v>
       </c>
-      <c r="C80" s="58" t="s">
+      <c r="D80" s="58" t="s">
         <v>287</v>
-      </c>
-      <c r="D80" s="58" t="s">
-        <v>288</v>
       </c>
       <c r="E80" s="16" t="s">
         <v>172</v>
@@ -3812,7 +3812,7 @@
         <v>274</v>
       </c>
       <c r="D82" s="60" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E82" s="45" t="s">
         <v>275</v>
@@ -3848,7 +3848,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="27" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C84" s="29" t="s">
         <v>278</v>
@@ -3872,10 +3872,10 @@
         <v>283</v>
       </c>
       <c r="C85" s="48" t="s">
+        <v>303</v>
+      </c>
+      <c r="D85" s="55" t="s">
         <v>284</v>
-      </c>
-      <c r="D85" s="55" t="s">
-        <v>285</v>
       </c>
       <c r="E85" s="17"/>
       <c r="F85" s="13">
@@ -3884,10 +3884,10 @@
       <c r="G85" s="56"/>
     </row>
     <row r="86" spans="1:7" ht="14.25">
-      <c r="A86" s="64" t="s">
+      <c r="A86" s="69" t="s">
         <v>177</v>
       </c>
-      <c r="B86" s="67" t="s">
+      <c r="B86" s="62" t="s">
         <v>178</v>
       </c>
       <c r="C86" s="19"/>
@@ -3897,8 +3897,8 @@
       <c r="G86" s="21"/>
     </row>
     <row r="87" spans="1:7" ht="14.25">
-      <c r="A87" s="65"/>
-      <c r="B87" s="68"/>
+      <c r="A87" s="70"/>
+      <c r="B87" s="63"/>
       <c r="C87" s="22"/>
       <c r="D87" s="22"/>
       <c r="E87" s="22"/>
@@ -3906,10 +3906,10 @@
       <c r="G87" s="18"/>
     </row>
     <row r="88" spans="1:7" ht="14.25">
-      <c r="A88" s="64" t="s">
+      <c r="A88" s="69" t="s">
         <v>179</v>
       </c>
-      <c r="B88" s="67" t="s">
+      <c r="B88" s="62" t="s">
         <v>180</v>
       </c>
       <c r="C88" s="19"/>
@@ -3919,8 +3919,8 @@
       <c r="G88" s="21"/>
     </row>
     <row r="89" spans="1:7" ht="14.25">
-      <c r="A89" s="65"/>
-      <c r="B89" s="68"/>
+      <c r="A89" s="70"/>
+      <c r="B89" s="63"/>
       <c r="C89" s="22"/>
       <c r="D89" s="22"/>
       <c r="E89" s="22"/>
@@ -3929,7 +3929,7 @@
     </row>
     <row r="90" spans="1:7" ht="14.25">
       <c r="A90" s="24"/>
-      <c r="B90" s="69"/>
+      <c r="B90" s="64"/>
       <c r="C90" s="25"/>
       <c r="D90" s="25"/>
       <c r="E90" s="25"/>
